--- a/data/trans_orig/P14B26-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B26-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2D007BB-BEFB-4D5E-BFDF-B87C023DE125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EA373E5-435A-4EE1-9D77-F13FFB6B3978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{94F3578C-3707-468F-9F07-377D908F25C8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{759D418F-3B35-4C04-BCBC-75B07F0E74A2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -76,28 +76,28 @@
     <t>58,04%</t>
   </si>
   <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
   </si>
   <si>
     <t>79,15%</t>
   </si>
   <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
   </si>
   <si>
     <t>70,31%</t>
   </si>
   <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>41,96%</t>
   </si>
   <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
   </si>
   <si>
     <t>20,85%</t>
   </si>
   <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
   </si>
   <si>
     <t>29,69%</t>
   </si>
   <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>80,71%</t>
   </si>
   <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
   </si>
   <si>
     <t>53,31%</t>
   </si>
   <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
   </si>
   <si>
     <t>67,73%</t>
   </si>
   <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
   </si>
   <si>
     <t>19,29%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
   </si>
   <si>
     <t>46,69%</t>
   </si>
   <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
   </si>
   <si>
     <t>32,27%</t>
   </si>
   <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -244,55 +244,55 @@
     <t>61,68%</t>
   </si>
   <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
   </si>
   <si>
     <t>70,04%</t>
   </si>
   <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
   </si>
   <si>
     <t>66,26%</t>
   </si>
   <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
   </si>
   <si>
     <t>38,32%</t>
   </si>
   <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
   </si>
   <si>
     <t>29,96%</t>
   </si>
   <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
   </si>
   <si>
     <t>33,74%</t>
   </si>
   <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -304,10 +304,10 @@
     <t>54,05%</t>
   </si>
   <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
   </si>
   <si>
     <t>39,77%</t>
@@ -322,406 +322,406 @@
     <t>45,55%</t>
   </si>
   <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
     <t>32,12%</t>
   </si>
   <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
   </si>
   <si>
     <t>67,88%</t>
   </si>
   <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>Población cuya hipoacusia le limita en 2023 (Tasa respuesta: 6,37%)</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
   </si>
   <si>
     <t>32,01%</t>
   </si>
   <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
   </si>
   <si>
     <t>67,99%</t>
   </si>
   <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>Población cuya hipoacusia le limita en 2023 (Tasa respuesta: 6,37%)</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
   </si>
   <si>
     <t>14,29%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
   </si>
   <si>
     <t>22,84%</t>
   </si>
   <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
+    <t>11,1%</t>
   </si>
   <si>
     <t>17,91%</t>
   </si>
   <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
   </si>
   <si>
     <t>85,71%</t>
   </si>
   <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
   </si>
   <si>
     <t>77,16%</t>
   </si>
   <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
+    <t>88,9%</t>
   </si>
   <si>
     <t>82,09%</t>
   </si>
   <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
   </si>
   <si>
     <t>31,1%</t>
   </si>
   <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
   </si>
   <si>
     <t>41,83%</t>
   </si>
   <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
   </si>
   <si>
     <t>36,67%</t>
   </si>
   <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
   </si>
   <si>
     <t>68,9%</t>
   </si>
   <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
   </si>
   <si>
     <t>58,17%</t>
   </si>
   <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
   </si>
   <si>
     <t>63,33%</t>
   </si>
   <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DD9DC6-9F6A-4DB8-AC5A-57271F990648}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9355FC2-5CD9-4CB7-BEA0-E3450D902DFD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1884,7 +1884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A053C4-2D46-4A60-ACD4-BDFF423613B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FF1D10-E1BB-4E5C-9FD5-341EF642E736}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2635,7 +2635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59AE5DB-12DD-4C98-A916-2039FD810A8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FCB4FF-39D2-4A63-A66B-86C2BBD42ADD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2944,13 +2944,13 @@
         <v>41325</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,13 +2965,13 @@
         <v>49540</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>63</v>
@@ -2980,13 +2980,13 @@
         <v>38249</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>130</v>
@@ -2995,13 +2995,13 @@
         <v>87789</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3069,13 @@
         <v>3495</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -3084,13 +3084,13 @@
         <v>4094</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -3099,13 +3099,13 @@
         <v>7589</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,13 +3120,13 @@
         <v>20956</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -3135,10 +3135,10 @@
         <v>13833</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>114</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>206</v>

--- a/data/trans_orig/P14B26-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B26-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EA373E5-435A-4EE1-9D77-F13FFB6B3978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89B35751-DFD6-4A17-8ECD-DAB8B706CCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{759D418F-3B35-4C04-BCBC-75B07F0E74A2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{84E2F5E2-9BD3-48CC-A226-6F01ED4E0219}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="226">
   <si>
     <t>Población cuya hipoacusia le limita en 2012 (Tasa respuesta: 1,58%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>58,04%</t>
   </si>
   <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
   </si>
   <si>
     <t>79,15%</t>
   </si>
   <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
   </si>
   <si>
     <t>70,31%</t>
   </si>
   <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>41,96%</t>
   </si>
   <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
   </si>
   <si>
     <t>20,85%</t>
   </si>
   <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
   </si>
   <si>
     <t>29,69%</t>
   </si>
   <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,274 +139,268 @@
     <t>80,71%</t>
   </si>
   <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
   </si>
   <si>
     <t>53,31%</t>
   </si>
   <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
   </si>
   <si>
     <t>67,73%</t>
   </si>
   <si>
-    <t>48,33%</t>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
   </si>
   <si>
     <t>84,43%</t>
   </si>
   <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
     <t>63,24%</t>
   </si>
   <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
   </si>
   <si>
     <t>61,68%</t>
   </si>
   <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
   </si>
   <si>
     <t>70,04%</t>
   </si>
   <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
   </si>
   <si>
     <t>66,26%</t>
   </si>
   <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
   </si>
   <si>
     <t>38,32%</t>
   </si>
   <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
   </si>
   <si>
     <t>29,96%</t>
   </si>
   <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
   </si>
   <si>
     <t>33,74%</t>
   </si>
   <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya hipoacusia le limita en 2015 (Tasa respuesta: 1,75%)</t>
+    <t>Población cuya hipoacusia le limita en 2016 (Tasa respuesta: 1,75%)</t>
   </si>
   <si>
     <t>54,05%</t>
   </si>
   <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
   </si>
   <si>
     <t>39,77%</t>
   </si>
   <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
   </si>
   <si>
     <t>45,55%</t>
   </si>
   <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
   </si>
   <si>
     <t>45,95%</t>
   </si>
   <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
   </si>
   <si>
     <t>60,23%</t>
   </si>
   <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
   </si>
   <si>
     <t>54,45%</t>
   </si>
   <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
   </si>
   <si>
     <t>42,34%</t>
   </si>
   <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
   </si>
   <si>
     <t>43,44%</t>
   </si>
   <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
   </si>
   <si>
     <t>42,97%</t>
   </si>
   <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
   </si>
   <si>
     <t>57,66%</t>
   </si>
   <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
   </si>
   <si>
     <t>56,56%</t>
   </si>
   <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
   </si>
   <si>
     <t>57,03%</t>
   </si>
   <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
   </si>
   <si>
     <t>74,55%</t>
@@ -418,19 +412,19 @@
     <t>62,75%</t>
   </si>
   <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
   </si>
   <si>
     <t>66,95%</t>
   </si>
   <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
   </si>
   <si>
     <t>25,45%</t>
@@ -442,73 +436,73 @@
     <t>37,25%</t>
   </si>
   <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
   </si>
   <si>
     <t>33,05%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
   </si>
   <si>
     <t>51,19%</t>
   </si>
   <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
   </si>
   <si>
     <t>43,87%</t>
   </si>
   <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
   </si>
   <si>
     <t>46,85%</t>
   </si>
   <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
   </si>
   <si>
     <t>48,81%</t>
   </si>
   <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
   </si>
   <si>
     <t>56,13%</t>
   </si>
   <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
   </si>
   <si>
     <t>53,15%</t>
   </si>
   <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
   </si>
   <si>
     <t>Población cuya hipoacusia le limita en 2023 (Tasa respuesta: 6,37%)</t>
@@ -1133,7 +1127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9355FC2-5CD9-4CB7-BEA0-E3450D902DFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58359D88-6AE0-472E-9F1E-9FBAEE971E93}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1570,10 +1564,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -1582,13 +1576,13 @@
         <v>3121</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -1597,13 +1591,13 @@
         <v>4175</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1618,13 +1612,13 @@
         <v>4099</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -1633,13 +1627,13 @@
         <v>3084</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -1648,13 +1642,13 @@
         <v>7183</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,13 +1716,13 @@
         <v>31927</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -1737,13 +1731,13 @@
         <v>43867</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -1752,13 +1746,13 @@
         <v>75794</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1773,13 +1767,13 @@
         <v>19834</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -1788,13 +1782,13 @@
         <v>18766</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>33</v>
@@ -1803,13 +1797,13 @@
         <v>38600</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,7 +1859,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1884,7 +1878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FF1D10-E1BB-4E5C-9FD5-341EF642E736}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69381FAF-0437-472B-9164-89B943EE227E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1901,7 +1895,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2008,13 +2002,13 @@
         <v>13151</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -2023,13 +2017,13 @@
         <v>14234</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -2038,13 +2032,13 @@
         <v>27385</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,13 +2053,13 @@
         <v>11180</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -2074,13 +2068,13 @@
         <v>21558</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>31</v>
@@ -2089,13 +2083,13 @@
         <v>32738</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,13 +2157,13 @@
         <v>8505</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -2178,13 +2172,13 @@
         <v>11716</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -2193,13 +2187,13 @@
         <v>20221</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2214,13 +2208,13 @@
         <v>11582</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -2229,13 +2223,13 @@
         <v>15255</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>25</v>
@@ -2244,13 +2238,13 @@
         <v>26836</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,13 +2312,13 @@
         <v>3444</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2333,13 +2327,13 @@
         <v>5254</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -2348,13 +2342,13 @@
         <v>8699</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,13 +2363,13 @@
         <v>1175</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -2384,13 +2378,13 @@
         <v>3119</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -2399,13 +2393,13 @@
         <v>4294</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,13 +2467,13 @@
         <v>25100</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -2488,13 +2482,13 @@
         <v>31205</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -2503,13 +2497,13 @@
         <v>56305</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,13 +2518,13 @@
         <v>23937</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>36</v>
@@ -2539,13 +2533,13 @@
         <v>39931</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>60</v>
@@ -2554,13 +2548,13 @@
         <v>63868</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,7 +2610,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2635,7 +2629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FCB4FF-39D2-4A63-A66B-86C2BBD42ADD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9EC6F0-6772-40C5-8A99-AD57B12B0064}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2652,7 +2646,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2759,13 +2753,13 @@
         <v>21727</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>97</v>
@@ -2774,13 +2768,13 @@
         <v>53566</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>131</v>
@@ -2789,13 +2783,13 @@
         <v>75294</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,13 +2804,13 @@
         <v>41723</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>100</v>
@@ -2825,13 +2819,13 @@
         <v>50182</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>170</v>
@@ -2840,13 +2834,13 @@
         <v>91904</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,13 +2908,13 @@
         <v>25434</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -2929,13 +2923,13 @@
         <v>15891</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>60</v>
@@ -2944,13 +2938,13 @@
         <v>41325</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,13 +2959,13 @@
         <v>49540</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>63</v>
@@ -2980,13 +2974,13 @@
         <v>38249</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>130</v>
@@ -2995,13 +2989,13 @@
         <v>87789</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3063,13 @@
         <v>3495</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -3084,13 +3078,13 @@
         <v>4094</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -3099,13 +3093,13 @@
         <v>7589</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,13 +3114,13 @@
         <v>20956</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -3135,13 +3129,13 @@
         <v>13833</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>51</v>
@@ -3150,13 +3144,13 @@
         <v>34790</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3218,13 @@
         <v>50656</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H13" s="7">
         <v>135</v>
@@ -3239,13 +3233,13 @@
         <v>73552</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>204</v>
@@ -3254,13 +3248,13 @@
         <v>124208</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,13 +3269,13 @@
         <v>112219</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>187</v>
@@ -3290,13 +3284,13 @@
         <v>102264</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>351</v>
@@ -3305,13 +3299,13 @@
         <v>214483</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,7 +3361,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
